--- a/Test Data/TestDataExcelSheet.xlsx
+++ b/Test Data/TestDataExcelSheet.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9204" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VerifyPortfolioManagementPage" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyInstrumentManagementPage" sheetId="2" r:id="rId2"/>
     <sheet name="VerifyStrategyManagementpage" sheetId="3" r:id="rId3"/>
+    <sheet name="VerifyModelPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="237">
   <si>
     <t>TC</t>
   </si>
@@ -599,6 +600,141 @@
   </si>
   <si>
     <t>REPORT_NAME_UNDER_RISKDISCLOSURE</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>MODELS_TAB_TITLE</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>URL_FRACTION_VALUE</t>
+  </si>
+  <si>
+    <t>portfolio-model-list</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://bank.qa.investasolutions.com/#/portfolio-model-list</t>
+  </si>
+  <si>
+    <t>PORTFOLIOMODELAPPROVAL_TITLE</t>
+  </si>
+  <si>
+    <t>Portfolio Model Approvals</t>
+  </si>
+  <si>
+    <t>E_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ASSET_MANAGER_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>Asset Manager</t>
+  </si>
+  <si>
+    <t>ASET_MANAGER_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>STRATEGY_NAME_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>INVESTMENTOBJECTIVE_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>Investment Objective</t>
+  </si>
+  <si>
+    <t>STATUS_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>NOTSUBMITTED_LABEL</t>
+  </si>
+  <si>
+    <t>SUBMITTEDTOBANK_LABEL</t>
+  </si>
+  <si>
+    <t>APPROVEDBYBANK_LABEL</t>
+  </si>
+  <si>
+    <t>Approved by Bank</t>
+  </si>
+  <si>
+    <t>CANCELLEDBYASSETMANAGER_LABEL</t>
+  </si>
+  <si>
+    <t>REVOKEDBYBANK_LABEL</t>
+  </si>
+  <si>
+    <t>Revoked by Bank</t>
+  </si>
+  <si>
+    <t>REJECTEDBYBANK_LABEL</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>USER_TAB_TITLE</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>user-list</t>
+  </si>
+  <si>
+    <t>https://bank.qa.investasolutions.com/#/user-list</t>
+  </si>
+  <si>
+    <t>USERMANAGEMENT_TITLE</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>FIRSTNAME_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>LASTNAME_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>EMAIL_COULMNNAME</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>L_COLUMNNAME</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>BACKBUTTON_TEXT</t>
+  </si>
+  <si>
+    <t>NEWUSERBUTTON_TEXT</t>
+  </si>
+  <si>
+    <t>New User</t>
   </si>
 </sst>
 </file>
@@ -651,16 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,10 +802,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,16 +832,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,23 +847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +856,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +894,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,7 +923,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,115 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,49 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,17 +1132,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,17 +1167,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,6 +1187,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,21 +1229,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,31 +1252,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,94 +1288,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,12 +1386,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1584,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.4"/>
@@ -1710,7 +1846,7 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1745,7 +1881,7 @@
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1933,13 +2069,13 @@
       <c r="H7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2046,8 +2182,8 @@
   <sheetPr/>
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2218,7 +2354,7 @@
       <c r="J2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>66</v>
       </c>
       <c r="L2" t="s">
@@ -2313,7 +2449,7 @@
       <c r="H3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J3" t="s">
@@ -2473,7 +2609,7 @@
       <c r="Z5" t="s">
         <v>124</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="2" t="s">
         <v>125</v>
       </c>
       <c r="AB5" t="s">
@@ -2505,8 +2641,8 @@
   <sheetPr/>
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -2667,7 +2803,7 @@
       <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>133</v>
       </c>
       <c r="G2" t="s">
@@ -2712,7 +2848,7 @@
       <c r="T2" t="s">
         <v>145</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>146</v>
       </c>
       <c r="V2" t="s">
@@ -2768,13 +2904,13 @@
       <c r="K3" t="s">
         <v>144</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>160</v>
       </c>
       <c r="M3" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>162</v>
       </c>
       <c r="O3" t="s">
@@ -2797,13 +2933,13 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E4" t="s">
@@ -2824,7 +2960,7 @@
       <c r="J4" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>171</v>
       </c>
       <c r="L4" t="s">
@@ -2908,4 +3044,355 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AI3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="19.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="10.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="22.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="55.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="24.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="17.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="32.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="14.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="32.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="14.1111111111111" customWidth="1"/>
+    <col min="16" max="16" width="33.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="26.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="10.4444444444444" customWidth="1"/>
+    <col min="20" max="20" width="38.4444444444444" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="23.1111111111111" customWidth="1"/>
+    <col min="24" max="24" width="22.5555555555556" customWidth="1"/>
+    <col min="25" max="25" width="13.8888888888889" customWidth="1"/>
+    <col min="26" max="26" width="26.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="17.4444444444444" customWidth="1"/>
+    <col min="28" max="28" width="24.8888888888889" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
+    <col min="30" max="30" width="35.7777777777778" customWidth="1"/>
+    <col min="31" max="31" width="26.1111111111111" customWidth="1"/>
+    <col min="32" max="32" width="23.6666666666667" customWidth="1"/>
+    <col min="33" max="33" width="16.1111111111111" customWidth="1"/>
+    <col min="34" max="34" width="24" customWidth="1"/>
+    <col min="35" max="35" width="16.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V2" t="s">
+        <v>209</v>
+      </c>
+      <c r="W2" t="s">
+        <v>210</v>
+      </c>
+      <c r="X2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>231</v>
+      </c>
+      <c r="R3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T3" t="s">
+        <v>232</v>
+      </c>
+      <c r="U3" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" t="s">
+        <v>234</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://bank.qa.investasolutions.com/#/portfolio-model-list"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://bank.qa.investasolutions.com/#/user-list"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Test Data/TestDataExcelSheet.xlsx
+++ b/Test Data/TestDataExcelSheet.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9204" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VerifyPortfolioManagementPage" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyInstrumentManagementPage" sheetId="2" r:id="rId2"/>
     <sheet name="VerifyStrategyManagementpage" sheetId="3" r:id="rId3"/>
     <sheet name="VerifyModelPage" sheetId="4" r:id="rId4"/>
+    <sheet name="VerifyPMConfigurationPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="246">
   <si>
     <t>TC</t>
   </si>
@@ -735,6 +736,33 @@
   </si>
   <si>
     <t>New User</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>SETTING_TAB_TITLE</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>pm-configuration</t>
+  </si>
+  <si>
+    <t>https://bank.qa.investasolutions.com/#/pm-configuration</t>
+  </si>
+  <si>
+    <t>ASSETMANAGER_NAME</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Asset Management</t>
+  </si>
+  <si>
+    <t>DROPDOWNVALUE_OF_SETTINGSTAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Model Configuration </t>
   </si>
 </sst>
 </file>
@@ -787,8 +815,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,14 +825,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,60 +839,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,8 +861,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,6 +951,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -941,85 +1119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,79 +1131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,17 +1160,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,20 +1186,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,17 +1223,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,8 +1252,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,130 +1280,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3051,8 +3079,8 @@
   <sheetPr/>
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="A1:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3395,4 +3423,179 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AI3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="19.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="22.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="55.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="24.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="35.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="28.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://bank.qa.investasolutions.com/#/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>